--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
